--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2701.xlsx
@@ -354,7 +354,7 @@
         <v>2.413863200192987</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.339251072371801</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2701.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165280943625215</v>
+        <v>0.7080510854721069</v>
       </c>
       <c r="B1">
-        <v>2.413863200192987</v>
+        <v>1.074634671211243</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.353059053421021</v>
       </c>
       <c r="D1">
-        <v>2.339251072371801</v>
+        <v>3.628820896148682</v>
       </c>
       <c r="E1">
-        <v>1.216547295800495</v>
+        <v>1.697909593582153</v>
       </c>
     </row>
   </sheetData>
